--- a/genealogy/McINNES-McKINNON-descendants.xlsx
+++ b/genealogy/McINNES-McKINNON-descendants.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15182" uniqueCount="5596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15185" uniqueCount="5598">
   <si>
     <t>MCINNES</t>
   </si>
@@ -16939,6 +16939,12 @@
   </si>
   <si>
     <t>2007-06-02 Warragul</t>
+  </si>
+  <si>
+    <t>1950-04-22</t>
+  </si>
+  <si>
+    <t>2023-10-12 Sale Hosiptal</t>
   </si>
 </sst>
 </file>
@@ -17906,7 +17912,7 @@
   <dimension ref="A1:L1281"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A417" workbookViewId="0">
-      <selection activeCell="J434" sqref="J434"/>
+      <selection activeCell="F433" sqref="F433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -32216,12 +32222,16 @@
       <c r="G432" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="H432" s="29">
-        <v>1950</v>
+      <c r="H432" s="29" t="s">
+        <v>5596</v>
       </c>
       <c r="I432" s="29"/>
-      <c r="J432" s="29"/>
-      <c r="K432" s="29"/>
+      <c r="J432" s="29" t="s">
+        <v>5597</v>
+      </c>
+      <c r="K432" s="29" t="s">
+        <v>698</v>
+      </c>
       <c r="L432" s="29" t="s">
         <v>5224</v>
       </c>
